--- a/src/test/resources/adminusercreation.xlsx
+++ b/src/test/resources/adminusercreation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\raj-projects\TalentAcquisition\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navee\IdeaProjects\Apollo-ta\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EE53BA-4597-4D15-9FB4-ADDCC2043082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -149,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,29 +475,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -531,7 +532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -566,7 +567,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -601,7 +602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -633,7 +634,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -664,16 +665,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="J2" r:id="rId5"/>
-    <hyperlink ref="K2" r:id="rId6"/>
-    <hyperlink ref="J3" r:id="rId7"/>
-    <hyperlink ref="K3" r:id="rId8"/>
-    <hyperlink ref="J4" r:id="rId9"/>
-    <hyperlink ref="K4" r:id="rId10"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
